--- a/data/trans_camb/P16A98-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A98-Edad-trans_camb.xlsx
@@ -901,12 +901,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,34</t>
+          <t>0,0; 1,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,14</t>
+          <t>0,0; 1,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,0</t>
+          <t>0,0; 1,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,69</t>
+          <t>0,0; 0,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1117,27 +1117,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,64</t>
+          <t>-0,17; 1,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 0,0</t>
+          <t>-1,01; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 0,0</t>
+          <t>-0,9; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,3</t>
+          <t>0,36; 3,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,28</t>
+          <t>0,0; 1,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,8</t>
+          <t>0,29; 1,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 0,0</t>
+          <t>-0,56; 0,0</t>
         </is>
       </c>
     </row>
@@ -1333,12 +1333,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 4,29</t>
+          <t>0,93; 4,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,94</t>
+          <t>0,0; 2,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1348,27 +1348,27 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 7,44</t>
+          <t>0,58; 7,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,74</t>
+          <t>-1,03; 2,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 0,0</t>
+          <t>-3,63; 0,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,07; 4,3</t>
+          <t>1,19; 4,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 1,82</t>
+          <t>-0,22; 1,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-41,45; —</t>
+          <t>-53,3; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>26,94; —</t>
+          <t>65,85; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,14; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,01; 9,18</t>
+          <t>1,0; 9,35</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,08</t>
+          <t>0,59; 5,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>10,75; 27,39</t>
+          <t>10,31; 27,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,06; 12,48</t>
+          <t>2,03; 12,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1579,12 +1579,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,39; 15,45</t>
+          <t>6,63; 15,41</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,61; 6,26</t>
+          <t>1,59; 6,61</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>17,43; 40,01</t>
+          <t>17,71; 40,4</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,1; 13,35</t>
+          <t>0,42; 13,72</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 0,0</t>
+          <t>-7,13; 0,0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>29,76; 55,86</t>
+          <t>29,0; 55,59</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 16,91</t>
+          <t>-5,17; 18,41</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 0,0</t>
+          <t>-13,43; 0,0</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>27,35; 44,14</t>
+          <t>26,88; 43,86</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,3; 11,34</t>
+          <t>-0,04; 11,46</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,42; -0,75</t>
+          <t>-7,11; -0,77</t>
         </is>
       </c>
     </row>
@@ -1871,12 +1871,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>286,54; —</t>
+          <t>273,9; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-61,13; —</t>
+          <t>-36,97; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>243,11; —</t>
+          <t>224,73; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -1901,12 +1901,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>433,08; 5154,64</t>
+          <t>447,29; 5106,95</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-29,51; 1056,11</t>
+          <t>-26,23; 967,7</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,86</t>
+          <t>1,45; 2,89</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,14</t>
+          <t>0,25; 1,09</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,38; -0,04</t>
+          <t>-0,41; -0,04</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,94; 6,94</t>
+          <t>4,04; 7,07</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,94</t>
+          <t>0,27; 1,78</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,75; -0,08</t>
+          <t>-0,72; -0,08</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,67; 4,09</t>
+          <t>2,67; 4,15</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,23</t>
+          <t>0,39; 1,19</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,45; -0,09</t>
+          <t>-0,42; -0,09</t>
         </is>
       </c>
     </row>
@@ -2087,12 +2087,12 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>418,65; 5687,41</t>
+          <t>379,48; 5390,76</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>29,2; 2078,97</t>
+          <t>41,17; 2252,91</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>601,33; 7517,05</t>
+          <t>612,08; 7731,54</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>13,89; 1678,76</t>
+          <t>6,13; 1557,68</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>697,19; 4123,69</t>
+          <t>739,6; 3784,01</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>90,15; 1243,53</t>
+          <t>91,88; 1041,09</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">

--- a/data/trans_camb/P16A98-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A98-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,55</t>
+          <t>0,0; 1,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,2</t>
+          <t>0,0; 1,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,02</t>
+          <t>0,0; 0,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,71</t>
+          <t>0,0; 0,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1122,22 +1122,22 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 0,0</t>
+          <t>-1,05; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 0,0</t>
+          <t>-1,02; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,24</t>
+          <t>0,36; 3,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,35</t>
+          <t>0,0; 1,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1147,12 +1147,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,85</t>
+          <t>0,31; 1,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 0,22</t>
+          <t>-0,37; 0,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1333,12 +1333,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,06</t>
+          <t>0,68; 3,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,07</t>
+          <t>0,0; 2,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,58; 7,08</t>
+          <t>0,58; 7,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 2,84</t>
+          <t>-1,43; 2,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 0,0</t>
+          <t>-3,13; 0,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,21</t>
+          <t>1,04; 4,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 1,82</t>
+          <t>-0,24; 1,8</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,0</t>
+          <t>-1,22; 0,0</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-53,3; —</t>
+          <t>-30,06; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>65,85; —</t>
+          <t>40,76; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-87,14; —</t>
+          <t>-76,26; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,0; 9,35</t>
+          <t>1,02; 9,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,51</t>
+          <t>0,59; 5,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>10,31; 27,37</t>
+          <t>10,82; 27,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,03; 12,24</t>
+          <t>2,01; 12,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1579,12 +1579,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,63; 15,41</t>
+          <t>6,45; 15,5</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,59; 6,61</t>
+          <t>1,62; 6,62</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>17,71; 40,4</t>
+          <t>16,54; 40,36</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,42; 13,72</t>
+          <t>0,33; 13,68</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 0,0</t>
+          <t>-7,18; 0,0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>29,0; 55,59</t>
+          <t>28,99; 55,59</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 18,41</t>
+          <t>-4,35; 16,26</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 0,0</t>
+          <t>-13,49; 0,0</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>26,88; 43,86</t>
+          <t>27,61; 45,19</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 11,46</t>
+          <t>0,12; 11,18</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,11; -0,77</t>
+          <t>-7,24; -0,63</t>
         </is>
       </c>
     </row>
@@ -1871,12 +1871,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>273,9; —</t>
+          <t>226,93; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-36,97; —</t>
+          <t>-50,46; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>224,73; —</t>
+          <t>193,98; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -1901,12 +1901,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>447,29; 5106,95</t>
+          <t>415,98; 5311,06</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-26,23; 967,7</t>
+          <t>-23,39; 1080,32</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1981,42 +1981,42 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,45; 2,89</t>
+          <t>1,43; 2,94</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,09</t>
+          <t>0,24; 1,12</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,41; -0,04</t>
+          <t>-0,37; -0,04</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>4,04; 7,07</t>
+          <t>3,97; 7,0</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,78</t>
+          <t>0,32; 1,84</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,72; -0,08</t>
+          <t>-0,74; -0,08</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,67; 4,15</t>
+          <t>2,68; 4,17</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,19</t>
+          <t>0,39; 1,2</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
@@ -2087,12 +2087,12 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>379,48; 5390,76</t>
+          <t>418,73; 5835,94</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>41,17; 2252,91</t>
+          <t>41,36; 2267,69</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>612,08; 7731,54</t>
+          <t>650,29; 7106,9</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>6,13; 1557,68</t>
+          <t>34,02; 1605,37</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>739,6; 3784,01</t>
+          <t>730,43; 4045,59</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>91,88; 1041,09</t>
+          <t>77,51; 1083,09</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
